--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:33:44+00:00</t>
+    <t>2025-10-17T12:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:45:54+00:00</t>
+    <t>2025-10-17T12:47:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:47:41+00:00</t>
+    <t>2025-10-17T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:37:49+00:00</t>
+    <t>2025-10-23T07:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T07:38:48+00:00</t>
+    <t>2025-10-23T09:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:27:39+00:00</t>
+    <t>2025-10-23T10:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T10:03:30+00:00</t>
+    <t>2025-10-23T11:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T11:11:53+00:00</t>
+    <t>2025-10-23T12:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:03:29+00:00</t>
+    <t>2025-10-23T12:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:14:06+00:00</t>
+    <t>2025-10-23T12:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:40:30+00:00</t>
+    <t>2025-10-23T12:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:50:40+00:00</t>
+    <t>2025-10-23T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T13:57:04+00:00</t>
+    <t>2025-10-23T15:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,19 +286,6 @@
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
-  </si>
-  <si>
-    <t>CompetenceMetier.exerciceProfessionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
-</t>
-  </si>
-  <si>
-    <t>Lien vers la classe ExerciceProfessionnel.</t>
-  </si>
-  <si>
-    <t>SavoirFaire.exerciceProfessionnel</t>
   </si>
   <si>
     <t>CompetenceMetier.competenceMetier</t>
@@ -612,7 +599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -621,8 +608,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -631,7 +618,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1179,7 +1166,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1194,13 +1181,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1227,13 +1214,11 @@
         <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>71</v>
@@ -1251,10 +1236,10 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1263,104 +1248,6 @@
         <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -288,13 +288,26 @@
     <t>SavoirFaire.dateAbandon</t>
   </si>
   <si>
+    <t>CompetenceMetier.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.exerciceProfessionnel</t>
+  </si>
+  <si>
     <t>CompetenceMetier.competenceMetier</t>
   </si>
   <si>
     <t>Compétence métier acquise par le professionnel</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R01-EnsembleSavoirFaire-CISIS/FHIR/TRE-R01-EnsembleSavoirFaire-CISIS?vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/competenceMetier-vs</t>
   </si>
 </sst>
 </file>
@@ -599,7 +612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -608,8 +621,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.5" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -618,7 +631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -633,7 +646,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.5625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -1166,7 +1179,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1181,13 +1194,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1214,11 +1227,13 @@
         <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>71</v>
@@ -1236,10 +1251,10 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1248,6 +1263,104 @@
         <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -288,17 +288,17 @@
     <t>SavoirFaire.dateAbandon</t>
   </si>
   <si>
-    <t>CompetenceMetier.exerciceProfessionnel</t>
+    <t>CompetenceMetier.ExerciceProfessionnel</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
 </t>
   </si>
   <si>
-    <t>Lien vers la classe ExerciceProfessionnel.</t>
-  </si>
-  <si>
-    <t>SavoirFaire.exerciceProfessionnel</t>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>SavoirFaire.ExerciceProfessionnel</t>
   </si>
   <si>
     <t>CompetenceMetier.competenceMetier</t>
@@ -621,8 +621,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-CompetenceMetier.xlsx
+++ b/ML/ig/StructureDefinition-CompetenceMetier.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
